--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N2">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q2">
-        <v>49.15146595979496</v>
+        <v>119.6102631424422</v>
       </c>
       <c r="R2">
-        <v>49.15146595979496</v>
+        <v>1076.49236828198</v>
       </c>
       <c r="S2">
-        <v>0.02541512934355434</v>
+        <v>0.03873476850579804</v>
       </c>
       <c r="T2">
-        <v>0.02541512934355434</v>
+        <v>0.03873476850579805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N3">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q3">
-        <v>147.393721384556</v>
+        <v>346.8862117494511</v>
       </c>
       <c r="R3">
-        <v>147.393721384556</v>
+        <v>3121.97590574506</v>
       </c>
       <c r="S3">
-        <v>0.07621401356534285</v>
+        <v>0.1123361554180917</v>
       </c>
       <c r="T3">
-        <v>0.07621401356534285</v>
+        <v>0.1123361554180917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N4">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q4">
-        <v>487.1586106554512</v>
+        <v>1255.538514212522</v>
       </c>
       <c r="R4">
-        <v>487.1586106554512</v>
+        <v>11299.8466279127</v>
       </c>
       <c r="S4">
-        <v>0.2518988774569232</v>
+        <v>0.4065954912265289</v>
       </c>
       <c r="T4">
-        <v>0.2518988774569232</v>
+        <v>0.406595491226529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N5">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O5">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P5">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q5">
-        <v>50.60617803735612</v>
+        <v>53.53962751859898</v>
       </c>
       <c r="R5">
-        <v>50.60617803735612</v>
+        <v>481.8566476673909</v>
       </c>
       <c r="S5">
-        <v>0.0261673285890273</v>
+        <v>0.01733835394501116</v>
       </c>
       <c r="T5">
-        <v>0.0261673285890273</v>
+        <v>0.01733835394501117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N6">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q6">
-        <v>151.7560618044772</v>
+        <v>155.272282498753</v>
       </c>
       <c r="R6">
-        <v>151.7560618044772</v>
+        <v>1397.450542488777</v>
       </c>
       <c r="S6">
-        <v>0.07846968272694228</v>
+        <v>0.05028361078675637</v>
       </c>
       <c r="T6">
-        <v>0.07846968272694228</v>
+        <v>0.05028361078675638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N7">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q7">
-        <v>501.5768075651441</v>
+        <v>562.000806788135</v>
       </c>
       <c r="R7">
-        <v>501.5768075651441</v>
+        <v>5058.007261093215</v>
       </c>
       <c r="S7">
-        <v>0.259354206249363</v>
+        <v>0.1819991911988838</v>
       </c>
       <c r="T7">
-        <v>0.259354206249363</v>
+        <v>0.1819991911988838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N8">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O8">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P8">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q8">
-        <v>39.27367213143888</v>
+        <v>41.33364267165888</v>
       </c>
       <c r="R8">
-        <v>39.27367213143888</v>
+        <v>372.00278404493</v>
       </c>
       <c r="S8">
-        <v>0.02030754195273301</v>
+        <v>0.01338554935274589</v>
       </c>
       <c r="T8">
-        <v>0.02030754195273301</v>
+        <v>0.01338554935274589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N9">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q9">
-        <v>117.7725338370325</v>
+        <v>119.8732478926345</v>
       </c>
       <c r="R9">
-        <v>117.7725338370325</v>
+        <v>1078.85923103371</v>
       </c>
       <c r="S9">
-        <v>0.06089755660664729</v>
+        <v>0.03881993388501906</v>
       </c>
       <c r="T9">
-        <v>0.06089755660664729</v>
+        <v>0.03881993388501907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N10">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q10">
-        <v>389.2560919045534</v>
+        <v>433.8756469849389</v>
       </c>
       <c r="R10">
-        <v>389.2560919045534</v>
+        <v>3904.88082286445</v>
       </c>
       <c r="S10">
-        <v>0.2012756635094668</v>
+        <v>0.1405069456811648</v>
       </c>
       <c r="T10">
-        <v>0.2012756635094668</v>
+        <v>0.1405069456811649</v>
       </c>
     </row>
   </sheetData>
